--- a/前端共通设计.xlsx
+++ b/前端共通设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="公共数据store" sheetId="3" r:id="rId3"/>
     <sheet name="共通工具类方法" sheetId="4" r:id="rId4"/>
     <sheet name="localStorage" sheetId="5" r:id="rId5"/>
+    <sheet name="需要优化的接口" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>命名</t>
   </si>
@@ -102,6 +103,18 @@
   </si>
   <si>
     <t>当前登录人的token</t>
+  </si>
+  <si>
+    <t>页面</t>
+  </si>
+  <si>
+    <t>接口名</t>
+  </si>
+  <si>
+    <t>问题及优化意见</t>
+  </si>
+  <si>
+    <t>提出人</t>
   </si>
 </sst>
 </file>
@@ -109,17 +122,78 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,41 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,15 +213,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,17 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,9 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,38 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -289,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,28 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,26 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +575,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -600,153 +606,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1134,126 +1146,126 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1280,122 +1292,122 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1419,96 +1431,96 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1521,7 +1533,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1531,30 +1543,142 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="4" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2"/>
@@ -1616,18 +1740,6 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/前端共通设计.xlsx
+++ b/前端共通设计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jx-project\JX_webApp\orchid.mobile.web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC9769-6440-412C-9751-3CA980AF5318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>命名</t>
   </si>
@@ -115,144 +121,40 @@
   </si>
   <si>
     <t>提出人</t>
+  </si>
+  <si>
+    <t>申请融资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageNo":null,"pageSize":null,"id":2993,"name":"智慧牧场贷","typeId":"43","typeName":"肉牛养殖担保","pid":"null","pname":"null","code":"MC","areaId":"0","areaName":"null","enabled":"1","qualify":"null","dueDate":"null","publicityPhotos":"https://ovft-public-pictures.oss-cn-hangzhou.aliyuncs.com/cc6114396cfd463e9773a29f5d5c6255.jpg","createTime":"2019/11/08 11:27:03","updateTime":"2019/11/08 11:27:03","operators":"null","productId":"10","financialName":"null","rateType":"null","baseRate":"null","minFloatDegree":"null","maxFloatDegree":"null","quotaStart":"100000","quotaEnd":"10000000","minSingleLoan":"null","maxSingleLoan":"null","fundUse":"null","bizCode":"null","minPeriod":"null","maxPeriod":"null","loanType":"null","toCustomer":"null","repayType":"null","quota":"null","limitDate":"null","fundOrgId":"null","fundOrgName":"null","orgId":"","memberName":"危诛甫","orgName":"危诛甫","productName":"智慧牧场贷","businessNo":"2019110801050028816","status":0,"isDeleted":null,"isDuplicate":1,"creditQuota":121222}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/orchid-web-customer//credit/submit/v1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数过多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡权兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,25 +164,41 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,198 +207,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -503,255 +235,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,62 +260,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1109,43 +568,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="29.7777777777778" customWidth="1"/>
-    <col min="3" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1219,79 +677,78 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="27.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="24.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1317,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1355,82 +812,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1444,105 +900,104 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1568,180 +1023,209 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="20.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="53.125" customWidth="1"/>
+    <col min="3" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://customer-beta.guanggujinxin.com/orchid-web-customer//credit/submit/v1" xr:uid="{80BA4E53-02DA-4E76-B11F-B49BF1778A2E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
 </worksheet>
 </file>
--- a/前端共通设计.xlsx
+++ b/前端共通设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jx-project\JX_webApp\orchid.mobile.web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DC9769-6440-412C-9751-3CA980AF5318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB70A3-2651-46B7-96DE-31DE81DCFCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>命名</t>
   </si>
@@ -140,6 +140,27 @@
   </si>
   <si>
     <t>参数过多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡权兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心获取用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/orchid-web-customer/user/personalCentreInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=MWU2MDU5NmItNzk0Ni00ZTdiLWI5YjAtZmZkZWZmOWY4MDE4&amp;orgId=&amp;appName=client_mini</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在接口请求是header中是有token
+这里仍然要求传token参数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -244,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1106,14 +1130,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="53.125" customWidth="1"/>
-    <col min="3" max="5" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="84.25" customWidth="1"/>
+    <col min="4" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1151,11 +1176,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>

--- a/前端共通设计.xlsx
+++ b/前端共通设计.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jx-project\JX_webApp\orchid.mobile.web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB70A3-2651-46B7-96DE-31DE81DCFCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="12220" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>命名</t>
   </si>
@@ -117,6 +111,9 @@
     <t>接口名</t>
   </si>
   <si>
+    <t>现有参数</t>
+  </si>
+  <si>
     <t>问题及优化意见</t>
   </si>
   <si>
@@ -124,59 +121,63 @@
   </si>
   <si>
     <t>申请融资</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/orchid-web-customer//credit/submit/v1</t>
   </si>
   <si>
     <t>{"pageNo":null,"pageSize":null,"id":2993,"name":"智慧牧场贷","typeId":"43","typeName":"肉牛养殖担保","pid":"null","pname":"null","code":"MC","areaId":"0","areaName":"null","enabled":"1","qualify":"null","dueDate":"null","publicityPhotos":"https://ovft-public-pictures.oss-cn-hangzhou.aliyuncs.com/cc6114396cfd463e9773a29f5d5c6255.jpg","createTime":"2019/11/08 11:27:03","updateTime":"2019/11/08 11:27:03","operators":"null","productId":"10","financialName":"null","rateType":"null","baseRate":"null","minFloatDegree":"null","maxFloatDegree":"null","quotaStart":"100000","quotaEnd":"10000000","minSingleLoan":"null","maxSingleLoan":"null","fundUse":"null","bizCode":"null","minPeriod":"null","maxPeriod":"null","loanType":"null","toCustomer":"null","repayType":"null","quota":"null","limitDate":"null","fundOrgId":"null","fundOrgName":"null","orgId":"","memberName":"危诛甫","orgName":"危诛甫","productName":"智慧牧场贷","businessNo":"2019110801050028816","status":0,"isDeleted":null,"isDuplicate":1,"creditQuota":121222}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/orchid-web-customer//credit/submit/v1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参数过多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>胡权兴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>个人中心获取用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/orchid-web-customer/user/personalCentreInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>token=MWU2MDU5NmItNzk0Ni00ZTdiLWI5YjAtZmZkZWZmOWY4MDE4&amp;orgId=&amp;appName=client_mini</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在接口请求是header中是有token
 这里仍然要求传token参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡权兴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证获取IP</t>
+  </si>
+  <si>
+    <t>http://ip-api.com/json</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>存在跨域问题。</t>
+  </si>
+  <si>
+    <t>官云杰</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,42 +185,169 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +356,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,16 +570,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,37 +828,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,179 +1185,181 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
     <col min="3" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
@@ -772,368 +1367,371 @@
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="53.125" customWidth="1"/>
@@ -1141,126 +1739,136 @@
     <col min="4" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="39.95" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="39.95" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="39.95" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="39.95" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="39.95" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="39.95" customHeight="1" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="39.95" customHeight="1" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="39.95" customHeight="1" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="39.95" customHeight="1" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="39.95" customHeight="1" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://customer-beta.guanggujinxin.com/orchid-web-customer//credit/submit/v1" xr:uid="{80BA4E53-02DA-4E76-B11F-B49BF1778A2E}"/>
+    <hyperlink ref="B2" r:id="rId1" display="/orchid-web-customer//credit/submit/v1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/前端共通设计.xlsx
+++ b/前端共通设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>命名</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>官云杰</t>
+  </si>
+  <si>
+    <t>实名认证上传身份证</t>
+  </si>
+  <si>
+    <t>/orchid-unify/credit/personal/ocr/v1</t>
+  </si>
+  <si>
+    <t>识别失败时，返回错误msg需要是中文。</t>
   </si>
 </sst>
 </file>
@@ -168,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,36 +199,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF6A8759"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +228,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -241,7 +290,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,62 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,29 +340,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -362,13 +356,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,169 +512,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +565,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -582,15 +600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,20 +621,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,23 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,152 +667,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,16 +825,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1728,7 +1725,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
@@ -1736,7 +1733,8 @@
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="53.125" customWidth="1"/>
     <col min="3" max="3" width="84.25" customWidth="1"/>
-    <col min="4" max="5" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="30.859375" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.95" customHeight="1" spans="1:5">
@@ -1808,11 +1806,19 @@
       </c>
     </row>
     <row r="5" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" ht="39.95" customHeight="1" spans="1:5">
       <c r="A6" s="2"/>
@@ -1866,6 +1872,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="/orchid-web-customer//credit/submit/v1"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://ip-api.com/json"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/前端共通设计.xlsx
+++ b/前端共通设计.xlsx
@@ -4,106 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12220" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能模块" sheetId="1" r:id="rId1"/>
-    <sheet name="共通组件组件" sheetId="2" r:id="rId2"/>
-    <sheet name="公共数据store" sheetId="3" r:id="rId3"/>
-    <sheet name="共通工具类方法" sheetId="4" r:id="rId4"/>
-    <sheet name="localStorage" sheetId="5" r:id="rId5"/>
-    <sheet name="需要优化的接口" sheetId="6" r:id="rId6"/>
+    <sheet name="需要优化的接口" sheetId="6" r:id="rId2"/>
+    <sheet name="共通组件组件" sheetId="2" r:id="rId3"/>
+    <sheet name="公共数据store" sheetId="3" r:id="rId4"/>
+    <sheet name="共通工具类方法" sheetId="4" r:id="rId5"/>
+    <sheet name="localStorage" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
-  <si>
-    <t>命名</t>
-  </si>
-  <si>
-    <t>作用描述</t>
-  </si>
-  <si>
-    <t>入参属性方法</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>TextSearch</t>
-  </si>
-  <si>
-    <t>查询框用于关键字搜索</t>
-  </si>
-  <si>
-    <t>秦梦欢</t>
-  </si>
-  <si>
-    <t>ListItem</t>
-  </si>
-  <si>
-    <t>用于封装列表每一行的item</t>
-  </si>
-  <si>
-    <t>GridItem</t>
-  </si>
-  <si>
-    <t>菜单九宫格</t>
-  </si>
-  <si>
-    <t>BasePicker</t>
-  </si>
-  <si>
-    <t>金融产品picker</t>
-  </si>
-  <si>
-    <t>DetailInfo</t>
-  </si>
-  <si>
-    <t>用于展示详情区域</t>
-  </si>
-  <si>
-    <t>getters中的命名</t>
-  </si>
-  <si>
-    <t>出入参数</t>
-  </si>
-  <si>
-    <t>loginUserInfo</t>
-  </si>
-  <si>
-    <t>当前登录人信息</t>
-  </si>
-  <si>
-    <t>loginUserOrganizations</t>
-  </si>
-  <si>
-    <t>当前登录人关联的机构数组</t>
-  </si>
-  <si>
-    <t>loginUserCurrentOrganization</t>
-  </si>
-  <si>
-    <t>当前登录人所属的机构</t>
-  </si>
-  <si>
-    <t>getDictionaryListByType</t>
-  </si>
-  <si>
-    <t>根据属性名获取数据字典数组</t>
-  </si>
-  <si>
-    <t>入参：数据字典类型</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>当前登录人的token</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>页面</t>
   </si>
@@ -170,6 +86,102 @@
   </si>
   <si>
     <t>识别失败时，返回错误msg需要是中文。</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>/orchid-unify/auth/login/v1.1</t>
+  </si>
+  <si>
+    <t>code必输</t>
+  </si>
+  <si>
+    <t>code非必输</t>
+  </si>
+  <si>
+    <t>秦梦欢</t>
+  </si>
+  <si>
+    <t>命名</t>
+  </si>
+  <si>
+    <t>作用描述</t>
+  </si>
+  <si>
+    <t>入参属性方法</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>TextSearch</t>
+  </si>
+  <si>
+    <t>查询框用于关键字搜索</t>
+  </si>
+  <si>
+    <t>ListItem</t>
+  </si>
+  <si>
+    <t>用于封装列表每一行的item</t>
+  </si>
+  <si>
+    <t>GridItem</t>
+  </si>
+  <si>
+    <t>菜单九宫格</t>
+  </si>
+  <si>
+    <t>BasePicker</t>
+  </si>
+  <si>
+    <t>金融产品picker</t>
+  </si>
+  <si>
+    <t>DetailInfo</t>
+  </si>
+  <si>
+    <t>用于展示详情区域</t>
+  </si>
+  <si>
+    <t>getters中的命名</t>
+  </si>
+  <si>
+    <t>出入参数</t>
+  </si>
+  <si>
+    <t>loginUserInfo</t>
+  </si>
+  <si>
+    <t>当前登录人信息</t>
+  </si>
+  <si>
+    <t>loginUserOrganizations</t>
+  </si>
+  <si>
+    <t>当前登录人关联的机构数组</t>
+  </si>
+  <si>
+    <t>loginUserCurrentOrganization</t>
+  </si>
+  <si>
+    <t>当前登录人所属的机构</t>
+  </si>
+  <si>
+    <t>getDictionaryListByType</t>
+  </si>
+  <si>
+    <t>根据属性名获取数据字典数组</t>
+  </si>
+  <si>
+    <t>入参：数据字典类型</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>当前登录人的token</t>
   </si>
 </sst>
 </file>
@@ -177,16 +189,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +206,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -207,14 +219,112 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -222,126 +332,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,187 +368,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,23 +586,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,27 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,8 +634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,9 +657,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,152 +685,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,63 +852,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1186,7 +1207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1194,7 +1215,7 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1203,7 +1224,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="53.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="84.25" customWidth="1"/>
+    <col min="4" max="4" width="30.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="39.95" customHeight="1" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="/orchid-web-customer//credit/submit/v1"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://ip-api.com/json"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1220,76 +1412,76 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1347,8 +1539,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1360,72 +1552,72 @@
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="24.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1489,8 +1681,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1498,23 +1690,23 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -1601,8 +1793,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1610,35 +1802,35 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -1717,165 +1909,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="53.125" customWidth="1"/>
-    <col min="3" max="3" width="84.25" customWidth="1"/>
-    <col min="4" max="4" width="30.859375" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" ht="39.95" customHeight="1" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="/orchid-web-customer//credit/submit/v1"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://ip-api.com/json"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
-</worksheet>
 </file>